--- a/Documents/FakeOrNot_Project_chart.xlsx
+++ b/Documents/FakeOrNot_Project_chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/FakeOrNot/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F1AFF-2C24-6644-B925-85A47D728FCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0537E3-0775-3F47-9971-3CABE1100035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="460" windowWidth="37400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37040" yWindow="460" windowWidth="35000" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management Dashboard" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +595,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="27">
@@ -954,7 +961,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,14 +1094,38 @@
     <xf numFmtId="166" fontId="6" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,21 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1156,31 +1172,22 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,6 +1200,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,11 +2062,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" charset="0"/>
+                <a:latin typeface="Times New Roman"/>
                 <a:ea typeface="Arial" charset="0"/>
                 <a:cs typeface="Arial" charset="0"/>
               </a:defRPr>
@@ -2110,14 +2120,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" charset="0"/>
+                <a:latin typeface="Times New Roman"/>
                 <a:ea typeface="Arial" charset="0"/>
                 <a:cs typeface="Arial" charset="0"/>
               </a:defRPr>
@@ -2128,7 +2138,7 @@
         <c:crossAx val="2145947768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6307,15 +6317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:colOff>4</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57729</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13657</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>150214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6662,14 +6672,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6679,7 +6689,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8975,8 +8985,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AB2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8985,128 +8995,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
     </row>
     <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
     </row>
     <row r="73" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="54"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="54"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="62"/>
     </row>
     <row r="153" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
-      <c r="I153" s="53"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="53"/>
-      <c r="M153" s="53"/>
-      <c r="N153" s="53"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="61"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="61"/>
+      <c r="G153" s="61"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="61"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="61"/>
+      <c r="L153" s="61"/>
+      <c r="M153" s="61"/>
+      <c r="N153" s="61"/>
     </row>
     <row r="154" spans="1:14" s="14" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
@@ -9121,11 +9131,11 @@
       <c r="J154" s="13"/>
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="55" t="s">
+      <c r="A155" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B155" s="55"/>
-      <c r="C155" s="55"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="63"/>
       <c r="D155" s="15" t="s">
         <v>56</v>
       </c>
@@ -9144,20 +9154,20 @@
       <c r="I155" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J155" s="55" t="s">
+      <c r="J155" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="55"/>
-      <c r="L155" s="55"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+      <c r="N155" s="63"/>
     </row>
     <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
       <c r="D156" s="31" t="s">
         <v>38</v>
       </c>
@@ -9166,18 +9176,18 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="57"/>
-      <c r="N156" s="57"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="56"/>
     </row>
     <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="49" t="s">
+      <c r="A157" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="49"/>
-      <c r="C157" s="49"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
       <c r="D157" s="31" t="s">
         <v>39</v>
       </c>
@@ -9186,18 +9196,18 @@
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="33"/>
-      <c r="J157" s="57"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="57"/>
-      <c r="M157" s="57"/>
-      <c r="N157" s="57"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
     </row>
     <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="49"/>
-      <c r="C158" s="49"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="31" t="s">
         <v>40</v>
       </c>
@@ -9206,18 +9216,18 @@
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
-      <c r="J158" s="57"/>
-      <c r="K158" s="57"/>
-      <c r="L158" s="57"/>
-      <c r="M158" s="57"/>
-      <c r="N158" s="57"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56"/>
+      <c r="L158" s="56"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56"/>
     </row>
     <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B159" s="49"/>
-      <c r="C159" s="49"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55"/>
       <c r="D159" s="31" t="s">
         <v>41</v>
       </c>
@@ -9226,18 +9236,18 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
-      <c r="J159" s="57"/>
-      <c r="K159" s="57"/>
-      <c r="L159" s="57"/>
-      <c r="M159" s="57"/>
-      <c r="N159" s="57"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56"/>
     </row>
     <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="49" t="s">
+      <c r="A160" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="49"/>
-      <c r="C160" s="49"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55"/>
       <c r="D160" s="31" t="s">
         <v>38</v>
       </c>
@@ -9246,18 +9256,18 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
-      <c r="J160" s="57"/>
-      <c r="K160" s="57"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="57"/>
-      <c r="N160" s="57"/>
+      <c r="J160" s="56"/>
+      <c r="K160" s="56"/>
+      <c r="L160" s="56"/>
+      <c r="M160" s="56"/>
+      <c r="N160" s="56"/>
     </row>
     <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="49" t="s">
+      <c r="A161" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="49"/>
-      <c r="C161" s="49"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55"/>
       <c r="D161" s="31" t="s">
         <v>39</v>
       </c>
@@ -9266,18 +9276,18 @@
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
-      <c r="J161" s="57"/>
-      <c r="K161" s="57"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="57"/>
-      <c r="N161" s="57"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="56"/>
+      <c r="M161" s="56"/>
+      <c r="N161" s="56"/>
     </row>
     <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55"/>
       <c r="D162" s="31" t="s">
         <v>40</v>
       </c>
@@ -9286,18 +9296,18 @@
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="33"/>
-      <c r="J162" s="57"/>
-      <c r="K162" s="57"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="57"/>
-      <c r="N162" s="57"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
+      <c r="L162" s="56"/>
+      <c r="M162" s="56"/>
+      <c r="N162" s="56"/>
     </row>
     <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="49" t="s">
+      <c r="A163" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="49"/>
-      <c r="C163" s="49"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
       <c r="D163" s="31" t="s">
         <v>41</v>
       </c>
@@ -9306,18 +9316,18 @@
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
-      <c r="J163" s="57"/>
-      <c r="K163" s="57"/>
-      <c r="L163" s="57"/>
-      <c r="M163" s="57"/>
-      <c r="N163" s="57"/>
+      <c r="J163" s="56"/>
+      <c r="K163" s="56"/>
+      <c r="L163" s="56"/>
+      <c r="M163" s="56"/>
+      <c r="N163" s="56"/>
     </row>
     <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
       <c r="D164" s="31" t="s">
         <v>42</v>
       </c>
@@ -9326,18 +9336,18 @@
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
-      <c r="J164" s="57"/>
-      <c r="K164" s="57"/>
-      <c r="L164" s="57"/>
-      <c r="M164" s="57"/>
-      <c r="N164" s="57"/>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="56"/>
     </row>
     <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="49" t="s">
+      <c r="A165" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55"/>
       <c r="D165" s="31" t="s">
         <v>43</v>
       </c>
@@ -9346,18 +9356,18 @@
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="33"/>
-      <c r="J165" s="57"/>
-      <c r="K165" s="57"/>
-      <c r="L165" s="57"/>
-      <c r="M165" s="57"/>
-      <c r="N165" s="57"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="56"/>
+      <c r="N165" s="56"/>
     </row>
     <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="49" t="s">
+      <c r="A166" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55"/>
       <c r="D166" s="31" t="s">
         <v>42</v>
       </c>
@@ -9366,18 +9376,18 @@
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="33"/>
-      <c r="J166" s="57"/>
-      <c r="K166" s="57"/>
-      <c r="L166" s="57"/>
-      <c r="M166" s="57"/>
-      <c r="N166" s="57"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
+      <c r="L166" s="56"/>
+      <c r="M166" s="56"/>
+      <c r="N166" s="56"/>
     </row>
     <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="49" t="s">
+      <c r="A167" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="55"/>
       <c r="D167" s="31" t="s">
         <v>43</v>
       </c>
@@ -9386,18 +9396,18 @@
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="33"/>
-      <c r="J167" s="57"/>
-      <c r="K167" s="57"/>
-      <c r="L167" s="57"/>
-      <c r="M167" s="57"/>
-      <c r="N167" s="57"/>
+      <c r="J167" s="56"/>
+      <c r="K167" s="56"/>
+      <c r="L167" s="56"/>
+      <c r="M167" s="56"/>
+      <c r="N167" s="56"/>
     </row>
     <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="55"/>
       <c r="D168" s="31" t="s">
         <v>42</v>
       </c>
@@ -9406,18 +9416,18 @@
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="33"/>
-      <c r="J168" s="57"/>
-      <c r="K168" s="57"/>
-      <c r="L168" s="57"/>
-      <c r="M168" s="57"/>
-      <c r="N168" s="57"/>
+      <c r="J168" s="56"/>
+      <c r="K168" s="56"/>
+      <c r="L168" s="56"/>
+      <c r="M168" s="56"/>
+      <c r="N168" s="56"/>
     </row>
     <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="49" t="s">
+      <c r="A169" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="55"/>
       <c r="D169" s="31" t="s">
         <v>38</v>
       </c>
@@ -9426,96 +9436,118 @@
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="33"/>
-      <c r="J169" s="57"/>
-      <c r="K169" s="57"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="57"/>
-      <c r="N169" s="57"/>
+      <c r="J169" s="56"/>
+      <c r="K169" s="56"/>
+      <c r="L169" s="56"/>
+      <c r="M169" s="56"/>
+      <c r="N169" s="56"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="56" t="s">
+      <c r="A171" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="56"/>
-      <c r="C171" s="56"/>
-      <c r="D171" s="56"/>
-      <c r="E171" s="56"/>
-      <c r="F171" s="56"/>
-      <c r="G171" s="56"/>
-      <c r="H171" s="56"/>
-      <c r="I171" s="56"/>
-      <c r="J171" s="56"/>
-      <c r="K171" s="56"/>
-      <c r="L171" s="56"/>
-      <c r="M171" s="56"/>
-      <c r="N171" s="56"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="54"/>
+      <c r="J171" s="54"/>
+      <c r="K171" s="54"/>
+      <c r="L171" s="54"/>
+      <c r="M171" s="54"/>
+      <c r="N171" s="54"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="56"/>
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="56"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="56"/>
-      <c r="J172" s="56"/>
-      <c r="K172" s="56"/>
-      <c r="L172" s="56"/>
-      <c r="M172" s="56"/>
-      <c r="N172" s="56"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="54"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="54"/>
+      <c r="J172" s="54"/>
+      <c r="K172" s="54"/>
+      <c r="L172" s="54"/>
+      <c r="M172" s="54"/>
+      <c r="N172" s="54"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="56"/>
-      <c r="B173" s="56"/>
-      <c r="C173" s="56"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="56"/>
-      <c r="G173" s="56"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="56"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="56"/>
-      <c r="L173" s="56"/>
-      <c r="M173" s="56"/>
-      <c r="N173" s="56"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="54"/>
+      <c r="J173" s="54"/>
+      <c r="K173" s="54"/>
+      <c r="L173" s="54"/>
+      <c r="M173" s="54"/>
+      <c r="N173" s="54"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="56"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="56"/>
-      <c r="L174" s="56"/>
-      <c r="M174" s="56"/>
-      <c r="N174" s="56"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="54"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
+      <c r="I174" s="54"/>
+      <c r="J174" s="54"/>
+      <c r="K174" s="54"/>
+      <c r="L174" s="54"/>
+      <c r="M174" s="54"/>
+      <c r="N174" s="54"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="56"/>
-      <c r="B175" s="56"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="56"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="56"/>
-      <c r="G175" s="56"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="56"/>
-      <c r="J175" s="56"/>
-      <c r="K175" s="56"/>
-      <c r="L175" s="56"/>
-      <c r="M175" s="56"/>
-      <c r="N175" s="56"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="54"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="54"/>
+      <c r="J175" s="54"/>
+      <c r="K175" s="54"/>
+      <c r="L175" s="54"/>
+      <c r="M175" s="54"/>
+      <c r="N175" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="O2:AB2"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="J155:N155"/>
+    <mergeCell ref="J156:N156"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="J159:N159"/>
+    <mergeCell ref="J160:N160"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="A153:N153"/>
+    <mergeCell ref="A113:N113"/>
     <mergeCell ref="A171:N175"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="A161:C161"/>
@@ -9532,28 +9564,6 @@
     <mergeCell ref="J167:N167"/>
     <mergeCell ref="J168:N168"/>
     <mergeCell ref="J169:N169"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="A153:N153"/>
-    <mergeCell ref="A113:N113"/>
-    <mergeCell ref="O2:AB2"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="J155:N155"/>
-    <mergeCell ref="J156:N156"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="J159:N159"/>
-    <mergeCell ref="J160:N160"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -9644,8 +9654,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9656,19 +9666,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -9680,20 +9690,20 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9943,11 +9953,11 @@
       <c r="F10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -9973,9 +9983,9 @@
       <c r="F11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -10145,11 +10155,11 @@
       <c r="F17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -10175,9 +10185,9 @@
       <c r="F18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -10203,11 +10213,11 @@
       <c r="F19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -10233,9 +10243,9 @@
       <c r="F20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -10261,14 +10271,14 @@
       <c r="F21" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="58" t="s">
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -10293,9 +10303,9 @@
       <c r="F22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -10739,34 +10749,34 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="69"/>
+      <c r="G42" s="70" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="1"/>
@@ -10779,7 +10789,7 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
@@ -10795,7 +10805,7 @@
       <c r="F43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="68"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -12033,11 +12043,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="M10:O11"/>
     <mergeCell ref="K17:M18"/>
     <mergeCell ref="K19:M21"/>
@@ -12045,6 +12050,11 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12060,27 +12070,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80550A51-EE5F-8043-8E61-DE7CF659BBA0}">
   <dimension ref="E13:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="72"/>
-    <col min="2" max="3" width="10.83203125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="72" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="72"/>
-    <col min="7" max="7" width="8.1640625" style="72" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="72"/>
-    <col min="9" max="9" width="10.83203125" style="72" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="72" customWidth="1"/>
-    <col min="11" max="15" width="10.83203125" style="72"/>
-    <col min="16" max="16" width="8.33203125" style="72" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="72"/>
-    <col min="19" max="19" width="5.1640625" style="72" customWidth="1"/>
-    <col min="20" max="21" width="10.83203125" style="72"/>
-    <col min="22" max="22" width="3.6640625" style="72" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="72"/>
+    <col min="1" max="1" width="10.83203125" style="48"/>
+    <col min="2" max="3" width="10.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="48" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="48"/>
+    <col min="7" max="7" width="8.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="48"/>
+    <col min="9" max="9" width="10.83203125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="48" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" style="48"/>
+    <col min="16" max="16" width="8.33203125" style="48" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="48"/>
+    <col min="19" max="19" width="5.1640625" style="48" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="48"/>
+    <col min="22" max="22" width="3.6640625" style="48" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="13" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12108,26 +12118,26 @@
     </row>
     <row r="17" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="H18" s="73" t="s">
+      <c r="F18" s="79"/>
+      <c r="H18" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="K18" s="73" t="s">
+      <c r="I18" s="79"/>
+      <c r="K18" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="74"/>
-      <c r="N18" s="73" t="s">
+      <c r="L18" s="79"/>
+      <c r="N18" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="74"/>
-      <c r="T18" s="73" t="s">
+      <c r="O18" s="79"/>
+      <c r="T18" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="U18" s="74"/>
+      <c r="U18" s="79"/>
     </row>
     <row r="19" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="39">
@@ -12162,10 +12172,10 @@
       </c>
     </row>
     <row r="20" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="75">
+      <c r="E20" s="49">
         <v>43343</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="50">
         <v>43347</v>
       </c>
       <c r="H20" s="41">
@@ -12192,31 +12202,31 @@
       <c r="U20" s="42">
         <v>43511</v>
       </c>
-      <c r="W20" s="77"/>
+      <c r="W20" s="51"/>
     </row>
     <row r="21" spans="5:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
     </row>
     <row r="22" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="H22" s="73" t="s">
+      <c r="F22" s="79"/>
+      <c r="H22" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="K22" s="73" t="s">
+      <c r="I22" s="79"/>
+      <c r="K22" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="74"/>
-      <c r="N22" s="73" t="s">
+      <c r="L22" s="79"/>
+      <c r="N22" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="74"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
     </row>
     <row r="23" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E23" s="39">
@@ -12243,10 +12253,10 @@
       <c r="O23" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="73" t="s">
+      <c r="T23" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="U23" s="74"/>
+      <c r="U23" s="79"/>
     </row>
     <row r="24" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="41">
@@ -12273,7 +12283,7 @@
       <c r="O24" s="42">
         <v>43506</v>
       </c>
-      <c r="T24" s="79">
+      <c r="T24" s="53">
         <v>23</v>
       </c>
       <c r="U24" s="42" t="s">
@@ -12289,20 +12299,20 @@
       </c>
     </row>
     <row r="26" spans="5:23" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="K26" s="73" t="s">
+      <c r="I26" s="79"/>
+      <c r="K26" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="L26" s="74"/>
-      <c r="N26" s="73" t="s">
+      <c r="L26" s="79"/>
+      <c r="N26" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="74"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
+      <c r="O26" s="79"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
     </row>
     <row r="27" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H27" s="39">
@@ -12323,8 +12333,8 @@
       <c r="O27" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
     </row>
     <row r="28" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H28" s="41">
@@ -12345,14 +12355,14 @@
       <c r="O28" s="42">
         <v>43511</v>
       </c>
-      <c r="Q28" s="73" t="s">
+      <c r="Q28" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="R28" s="74"/>
-      <c r="T28" s="73" t="s">
+      <c r="R28" s="79"/>
+      <c r="T28" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="U28" s="74"/>
+      <c r="U28" s="79"/>
     </row>
     <row r="29" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="39">
@@ -12361,7 +12371,7 @@
       <c r="R29" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="T29" s="79">
+      <c r="T29" s="53">
         <v>24</v>
       </c>
       <c r="U29" s="42" t="s">
@@ -12369,14 +12379,14 @@
       </c>
     </row>
     <row r="30" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="74"/>
-      <c r="N30" s="73" t="s">
+      <c r="I30" s="79"/>
+      <c r="N30" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="74"/>
+      <c r="O30" s="79"/>
       <c r="Q30" s="41">
         <v>43470</v>
       </c>
@@ -12403,8 +12413,8 @@
       <c r="O31" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
     </row>
     <row r="32" spans="5:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H32" s="41">
@@ -12419,35 +12429,35 @@
       <c r="O32" s="42">
         <v>43475</v>
       </c>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
     </row>
     <row r="33" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q33" s="73" t="s">
+      <c r="Q33" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="R33" s="74"/>
-      <c r="T33" s="73" t="s">
+      <c r="R33" s="79"/>
+      <c r="T33" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="U33" s="74"/>
+      <c r="U33" s="79"/>
     </row>
     <row r="34" spans="8:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="N34" s="73" t="s">
+      <c r="I34" s="79"/>
+      <c r="N34" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="O34" s="74"/>
+      <c r="O34" s="79"/>
       <c r="Q34" s="39">
         <v>21</v>
       </c>
       <c r="R34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="T34" s="79">
+      <c r="T34" s="53">
         <v>25</v>
       </c>
       <c r="U34" s="42" t="s">
@@ -12481,10 +12491,10 @@
       </c>
     </row>
     <row r="36" spans="8:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="75">
+      <c r="H36" s="49">
         <v>43371</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="50">
         <v>43393</v>
       </c>
       <c r="N36" s="41">
@@ -12493,22 +12503,22 @@
       <c r="O36" s="42">
         <v>43508</v>
       </c>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="8:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="74"/>
-      <c r="T38" s="73" t="s">
+      <c r="O38" s="79"/>
+      <c r="T38" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="74"/>
+      <c r="U38" s="79"/>
     </row>
     <row r="39" spans="8:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N39" s="39">
@@ -12517,7 +12527,7 @@
       <c r="O39" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="T39" s="79">
+      <c r="T39" s="53">
         <v>26</v>
       </c>
       <c r="U39" s="42" t="s">
@@ -12539,22 +12549,22 @@
       </c>
     </row>
     <row r="41" spans="8:21" x14ac:dyDescent="0.2">
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
     </row>
     <row r="42" spans="8:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
     </row>
     <row r="43" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N43" s="73" t="s">
+      <c r="N43" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="O43" s="74"/>
-      <c r="T43" s="73" t="s">
+      <c r="O43" s="79"/>
+      <c r="T43" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="U43" s="74"/>
+      <c r="U43" s="79"/>
     </row>
     <row r="44" spans="8:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N44" s="39">
@@ -12563,7 +12573,7 @@
       <c r="O44" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="T44" s="79">
+      <c r="T44" s="53">
         <v>27</v>
       </c>
       <c r="U44" s="42" t="s">
@@ -12585,19 +12595,19 @@
       </c>
     </row>
     <row r="46" spans="8:21" x14ac:dyDescent="0.2">
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
     </row>
     <row r="47" spans="8:21" x14ac:dyDescent="0.2">
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
     </row>
     <row r="48" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="14:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N49" s="73" t="s">
+      <c r="N49" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="O49" s="74"/>
+      <c r="O49" s="79"/>
     </row>
     <row r="50" spans="14:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N50" s="39">
@@ -12616,17 +12626,17 @@
       </c>
     </row>
     <row r="52" spans="14:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q52" s="73" t="s">
+      <c r="Q52" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="R52" s="74"/>
+      <c r="R52" s="79"/>
       <c r="T52" s="80" t="s">
         <v>65</v>
       </c>
       <c r="U52" s="81"/>
     </row>
     <row r="53" spans="14:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q53" s="79">
+      <c r="Q53" s="53">
         <v>28</v>
       </c>
       <c r="R53" s="42" t="s">
@@ -12655,11 +12665,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H34:I34"/>
@@ -12673,17 +12689,11 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documents/FakeOrNot_Project_chart.xlsx
+++ b/Documents/FakeOrNot_Project_chart.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/FakeOrNot/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0537E3-0775-3F47-9971-3CABE1100035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1DFA1-11F1-C54A-87D0-0C2BA6E479A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37040" yWindow="460" windowWidth="35000" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37000" yWindow="460" windowWidth="35000" windowHeight="21060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Project Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="150">
   <si>
     <t>RISKS</t>
   </si>
@@ -278,9 +279,6 @@
     <t xml:space="preserve">Dev Environment Setup - Software/IDE/Database </t>
   </si>
   <si>
-    <t>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</t>
-  </si>
-  <si>
     <t>Data Preparation - Download/Scrape/Curate</t>
   </si>
   <si>
@@ -320,9 +318,6 @@
     <t xml:space="preserve">Integrate Web and Mobile App with ML Model </t>
   </si>
   <si>
-    <t>Alexa Skill Development and Integration with ML Model</t>
-  </si>
-  <si>
     <t>Dashboard Integration</t>
   </si>
   <si>
@@ -447,6 +442,42 @@
   </si>
   <si>
     <t>30d</t>
+  </si>
+  <si>
+    <t>Yamini: Mobile App and model API for fake image detection</t>
+  </si>
+  <si>
+    <t>Gyanesh: Chrome Plug-in + Model APIs</t>
+  </si>
+  <si>
+    <t>Shalini: Model API + Twitter stream + Dashboard</t>
+  </si>
+  <si>
+    <t>Manoj:  Web + Content analysis + Model APIs, Integration</t>
+  </si>
+  <si>
+    <t>Madhu: IoT + Alexa + Model</t>
+  </si>
+  <si>
+    <t>Clickbait</t>
+  </si>
+  <si>
+    <t>Toxicity</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Stance</t>
+  </si>
+  <si>
+    <t>Fake image</t>
+  </si>
+  <si>
+    <t>Alexa Skill Dev. and Integration with ML Model</t>
+  </si>
+  <si>
+    <t>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</t>
   </si>
 </sst>
 </file>
@@ -1112,11 +1143,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,7 +1158,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,8 +1173,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1172,28 +1218,10 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,7 +1230,10 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1355,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -1366,7 +1397,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -1829,7 +1860,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -1871,7 +1902,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -1925,7 +1956,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -2671,7 +2702,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -2713,7 +2744,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -2767,7 +2798,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -3133,7 +3164,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -3175,7 +3206,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -3327,7 +3358,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -3369,7 +3400,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -3521,7 +3552,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -3563,7 +3594,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -4367,7 +4398,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -4409,7 +4440,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -4553,7 +4584,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -4595,7 +4626,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -4739,7 +4770,7 @@
                   <c:v>Dev Environment Setup - Software/IDE/Database </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Deployment Environment Setup - GIT/Jenkins/Cloud Infrastructure</c:v>
+                  <c:v>Dep. Env. Setup - GIT/Jenkins/Cloud Infra.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Workbook 2</c:v>
@@ -4781,7 +4812,7 @@
                   <c:v>Integrate Web and Mobile App with ML Model </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Alexa Skill Development and Integration with ML Model</c:v>
+                  <c:v>Alexa Skill Dev. and Integration with ML Model</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Live Stream setup for content monitoring </c:v>
@@ -6672,14 +6703,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6689,7 +6720,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8985,7 +9016,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P20" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
@@ -8995,128 +9026,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="58" t="s">
+      <c r="A2" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
     </row>
     <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
     </row>
     <row r="73" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="62"/>
-      <c r="N113" s="62"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
     </row>
     <row r="153" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="61" t="s">
+      <c r="A153" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="61"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="61"/>
-      <c r="L153" s="61"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="61"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="62"/>
+      <c r="E153" s="62"/>
+      <c r="F153" s="62"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="62"/>
+      <c r="J153" s="62"/>
+      <c r="K153" s="62"/>
+      <c r="L153" s="62"/>
+      <c r="M153" s="62"/>
+      <c r="N153" s="62"/>
     </row>
     <row r="154" spans="1:14" s="14" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
@@ -9131,11 +9162,11 @@
       <c r="J154" s="13"/>
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="63" t="s">
+      <c r="A155" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="56"/>
       <c r="D155" s="15" t="s">
         <v>56</v>
       </c>
@@ -9154,13 +9185,13 @@
       <c r="I155" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J155" s="63" t="s">
+      <c r="J155" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="63"/>
-      <c r="L155" s="63"/>
-      <c r="M155" s="63"/>
-      <c r="N155" s="63"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
     </row>
     <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="55" t="s">
@@ -9176,11 +9207,11 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-      <c r="L156" s="56"/>
-      <c r="M156" s="56"/>
-      <c r="N156" s="56"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="57"/>
+      <c r="M156" s="57"/>
+      <c r="N156" s="57"/>
     </row>
     <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="55" t="s">
@@ -9196,11 +9227,11 @@
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="33"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="56"/>
-      <c r="L157" s="56"/>
-      <c r="M157" s="56"/>
-      <c r="N157" s="56"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="57"/>
+      <c r="L157" s="57"/>
+      <c r="M157" s="57"/>
+      <c r="N157" s="57"/>
     </row>
     <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="55" t="s">
@@ -9216,11 +9247,11 @@
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="56"/>
-      <c r="L158" s="56"/>
-      <c r="M158" s="56"/>
-      <c r="N158" s="56"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="57"/>
+      <c r="L158" s="57"/>
+      <c r="M158" s="57"/>
+      <c r="N158" s="57"/>
     </row>
     <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="55" t="s">
@@ -9236,11 +9267,11 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="56"/>
-      <c r="L159" s="56"/>
-      <c r="M159" s="56"/>
-      <c r="N159" s="56"/>
+      <c r="J159" s="57"/>
+      <c r="K159" s="57"/>
+      <c r="L159" s="57"/>
+      <c r="M159" s="57"/>
+      <c r="N159" s="57"/>
     </row>
     <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="55" t="s">
@@ -9256,11 +9287,11 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="56"/>
-      <c r="L160" s="56"/>
-      <c r="M160" s="56"/>
-      <c r="N160" s="56"/>
+      <c r="J160" s="57"/>
+      <c r="K160" s="57"/>
+      <c r="L160" s="57"/>
+      <c r="M160" s="57"/>
+      <c r="N160" s="57"/>
     </row>
     <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="55" t="s">
@@ -9276,11 +9307,11 @@
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="56"/>
-      <c r="N161" s="56"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="57"/>
+      <c r="N161" s="57"/>
     </row>
     <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="55" t="s">
@@ -9296,11 +9327,11 @@
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="33"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="56"/>
-      <c r="N162" s="56"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="57"/>
+      <c r="L162" s="57"/>
+      <c r="M162" s="57"/>
+      <c r="N162" s="57"/>
     </row>
     <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="55" t="s">
@@ -9316,11 +9347,11 @@
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="56"/>
-      <c r="L163" s="56"/>
-      <c r="M163" s="56"/>
-      <c r="N163" s="56"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="57"/>
+      <c r="L163" s="57"/>
+      <c r="M163" s="57"/>
+      <c r="N163" s="57"/>
     </row>
     <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="55" t="s">
@@ -9336,11 +9367,11 @@
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="56"/>
-      <c r="L164" s="56"/>
-      <c r="M164" s="56"/>
-      <c r="N164" s="56"/>
+      <c r="J164" s="57"/>
+      <c r="K164" s="57"/>
+      <c r="L164" s="57"/>
+      <c r="M164" s="57"/>
+      <c r="N164" s="57"/>
     </row>
     <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="55" t="s">
@@ -9356,11 +9387,11 @@
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="33"/>
-      <c r="J165" s="56"/>
-      <c r="K165" s="56"/>
-      <c r="L165" s="56"/>
-      <c r="M165" s="56"/>
-      <c r="N165" s="56"/>
+      <c r="J165" s="57"/>
+      <c r="K165" s="57"/>
+      <c r="L165" s="57"/>
+      <c r="M165" s="57"/>
+      <c r="N165" s="57"/>
     </row>
     <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="55" t="s">
@@ -9376,11 +9407,11 @@
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="33"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="56"/>
-      <c r="L166" s="56"/>
-      <c r="M166" s="56"/>
-      <c r="N166" s="56"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
+      <c r="L166" s="57"/>
+      <c r="M166" s="57"/>
+      <c r="N166" s="57"/>
     </row>
     <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="55" t="s">
@@ -9396,11 +9427,11 @@
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="33"/>
-      <c r="J167" s="56"/>
-      <c r="K167" s="56"/>
-      <c r="L167" s="56"/>
-      <c r="M167" s="56"/>
-      <c r="N167" s="56"/>
+      <c r="J167" s="57"/>
+      <c r="K167" s="57"/>
+      <c r="L167" s="57"/>
+      <c r="M167" s="57"/>
+      <c r="N167" s="57"/>
     </row>
     <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="55" t="s">
@@ -9416,11 +9447,11 @@
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="33"/>
-      <c r="J168" s="56"/>
-      <c r="K168" s="56"/>
-      <c r="L168" s="56"/>
-      <c r="M168" s="56"/>
-      <c r="N168" s="56"/>
+      <c r="J168" s="57"/>
+      <c r="K168" s="57"/>
+      <c r="L168" s="57"/>
+      <c r="M168" s="57"/>
+      <c r="N168" s="57"/>
     </row>
     <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="55" t="s">
@@ -9436,96 +9467,118 @@
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="33"/>
-      <c r="J169" s="56"/>
-      <c r="K169" s="56"/>
-      <c r="L169" s="56"/>
-      <c r="M169" s="56"/>
-      <c r="N169" s="56"/>
+      <c r="J169" s="57"/>
+      <c r="K169" s="57"/>
+      <c r="L169" s="57"/>
+      <c r="M169" s="57"/>
+      <c r="N169" s="57"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
-      <c r="K171" s="54"/>
-      <c r="L171" s="54"/>
-      <c r="M171" s="54"/>
-      <c r="N171" s="54"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="64"/>
+      <c r="M171" s="64"/>
+      <c r="N171" s="64"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="54"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
-      <c r="K172" s="54"/>
-      <c r="L172" s="54"/>
-      <c r="M172" s="54"/>
-      <c r="N172" s="54"/>
+      <c r="A172" s="64"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="64"/>
+      <c r="J172" s="64"/>
+      <c r="K172" s="64"/>
+      <c r="L172" s="64"/>
+      <c r="M172" s="64"/>
+      <c r="N172" s="64"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="54"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="54"/>
-      <c r="I173" s="54"/>
-      <c r="J173" s="54"/>
-      <c r="K173" s="54"/>
-      <c r="L173" s="54"/>
-      <c r="M173" s="54"/>
-      <c r="N173" s="54"/>
+      <c r="A173" s="64"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="64"/>
+      <c r="F173" s="64"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="64"/>
+      <c r="I173" s="64"/>
+      <c r="J173" s="64"/>
+      <c r="K173" s="64"/>
+      <c r="L173" s="64"/>
+      <c r="M173" s="64"/>
+      <c r="N173" s="64"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="54"/>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
-      <c r="K174" s="54"/>
-      <c r="L174" s="54"/>
-      <c r="M174" s="54"/>
-      <c r="N174" s="54"/>
+      <c r="A174" s="64"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
+      <c r="I174" s="64"/>
+      <c r="J174" s="64"/>
+      <c r="K174" s="64"/>
+      <c r="L174" s="64"/>
+      <c r="M174" s="64"/>
+      <c r="N174" s="64"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
-      <c r="K175" s="54"/>
-      <c r="L175" s="54"/>
-      <c r="M175" s="54"/>
-      <c r="N175" s="54"/>
+      <c r="A175" s="64"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="64"/>
+      <c r="L175" s="64"/>
+      <c r="M175" s="64"/>
+      <c r="N175" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A171:N175"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="J162:N162"/>
+    <mergeCell ref="J163:N163"/>
+    <mergeCell ref="J164:N164"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="J166:N166"/>
+    <mergeCell ref="J167:N167"/>
+    <mergeCell ref="J168:N168"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="A153:N153"/>
+    <mergeCell ref="A113:N113"/>
     <mergeCell ref="O2:AB2"/>
     <mergeCell ref="A165:C165"/>
     <mergeCell ref="A166:C166"/>
@@ -9542,28 +9595,6 @@
     <mergeCell ref="J158:N158"/>
     <mergeCell ref="J159:N159"/>
     <mergeCell ref="J160:N160"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="A153:N153"/>
-    <mergeCell ref="A113:N113"/>
-    <mergeCell ref="A171:N175"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="J162:N162"/>
-    <mergeCell ref="J163:N163"/>
-    <mergeCell ref="J164:N164"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="J166:N166"/>
-    <mergeCell ref="J167:N167"/>
-    <mergeCell ref="J168:N168"/>
-    <mergeCell ref="J169:N169"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -9654,31 +9685,31 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -9690,20 +9721,20 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9938,26 +9969,26 @@
         <v>76</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="44">
         <v>43366</v>
       </c>
       <c r="D10" s="44">
-        <v>43373</v>
+        <v>43412</v>
       </c>
       <c r="E10" s="45">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -9983,9 +10014,9 @@
       <c r="F11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -10008,8 +10039,8 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>47</v>
+      <c r="F12" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>12</v>
@@ -10042,8 +10073,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>47</v>
+      <c r="F13" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="M13" s="30">
         <v>1000000</v>
@@ -10077,8 +10108,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>47</v>
+      <c r="F14" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -10102,8 +10133,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>47</v>
+      <c r="F15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -10112,7 +10143,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>58</v>
@@ -10127,8 +10158,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>47</v>
+      <c r="F16" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -10152,14 +10183,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="59" t="s">
+      <c r="F17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -10167,10 +10198,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>85</v>
       </c>
       <c r="C18" s="44">
         <v>43353</v>
@@ -10182,12 +10213,12 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
+      <c r="F18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -10195,10 +10226,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="C19" s="47">
         <v>43383</v>
@@ -10213,11 +10244,11 @@
       <c r="F19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -10225,7 +10256,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>58</v>
@@ -10243,9 +10274,9 @@
       <c r="F20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -10253,7 +10284,7 @@
     </row>
     <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>75</v>
@@ -10271,24 +10302,24 @@
       <c r="F21" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="74" t="s">
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>89</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>90</v>
       </c>
       <c r="C22" s="44">
         <v>43399</v>
@@ -10303,16 +10334,16 @@
       <c r="F22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>77</v>
@@ -10345,7 +10376,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>67</v>
@@ -10381,7 +10412,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="47">
         <v>43470</v>
@@ -10403,10 +10434,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="44">
         <v>43470</v>
@@ -10428,7 +10459,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>77</v>
@@ -10453,7 +10484,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>58</v>
@@ -10478,7 +10509,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>67</v>
@@ -10503,7 +10534,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>75</v>
@@ -10553,7 +10584,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>77</v>
@@ -10578,10 +10609,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="47">
         <v>43512</v>
@@ -10603,7 +10634,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>75</v>
@@ -10631,7 +10662,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="47">
         <v>43525</v>
@@ -10653,7 +10684,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>67</v>
@@ -10678,7 +10709,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>67</v>
@@ -10749,34 +10780,34 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="74"/>
+      <c r="G42" s="75" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="1"/>
@@ -10789,7 +10820,7 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
@@ -10805,7 +10836,7 @@
       <c r="F43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="71"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -12043,6 +12074,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="M10:O11"/>
     <mergeCell ref="K17:M18"/>
     <mergeCell ref="K19:M21"/>
@@ -12050,11 +12086,6 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12071,7 +12102,7 @@
   <dimension ref="E13:W54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12095,17 +12126,17 @@
   <sheetData>
     <row r="13" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="83"/>
+      <c r="E14" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="5:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E15" s="39">
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12118,57 +12149,57 @@
     </row>
     <row r="17" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="H18" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="79"/>
-      <c r="K18" s="78" t="s">
+      <c r="F18" s="80"/>
+      <c r="H18" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="80"/>
+      <c r="K18" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="N18" s="78" t="s">
+      <c r="L18" s="80"/>
+      <c r="N18" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="79"/>
-      <c r="T18" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="U18" s="79"/>
+      <c r="O18" s="80"/>
+      <c r="T18" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="80"/>
     </row>
     <row r="19" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="39">
         <v>2</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="39">
         <v>4</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K19" s="39">
         <v>9</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" s="39">
         <v>12</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T19" s="39">
         <v>22</v>
       </c>
       <c r="U19" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12185,7 +12216,7 @@
         <v>43368</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L20" s="42">
         <v>43376</v>
@@ -12209,22 +12240,22 @@
       <c r="U21" s="52"/>
     </row>
     <row r="22" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="H22" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="K22" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="79"/>
-      <c r="N22" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" s="79"/>
+      <c r="E22" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="H22" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="80"/>
+      <c r="K22" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="80"/>
+      <c r="N22" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="80"/>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
     </row>
@@ -12233,30 +12264,30 @@
         <v>3</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="39">
         <v>5</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K23" s="39">
         <v>10</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N23" s="39">
         <v>13</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="U23" s="79"/>
+        <v>125</v>
+      </c>
+      <c r="T23" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" s="80"/>
     </row>
     <row r="24" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="41">
@@ -12287,7 +12318,7 @@
         <v>23</v>
       </c>
       <c r="U24" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="5:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12299,18 +12330,18 @@
       </c>
     </row>
     <row r="26" spans="5:23" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="79"/>
-      <c r="K26" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="79"/>
-      <c r="N26" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="O26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="K26" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="80"/>
+      <c r="N26" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="80"/>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
     </row>
@@ -12319,19 +12350,19 @@
         <v>6</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K27" s="39">
         <v>11</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N27" s="39">
         <v>14</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T27" s="52"/>
       <c r="U27" s="52"/>
@@ -12341,7 +12372,7 @@
         <v>43366</v>
       </c>
       <c r="I28" s="42">
-        <v>43373</v>
+        <v>43412</v>
       </c>
       <c r="K28" s="41">
         <v>43375</v>
@@ -12355,38 +12386,38 @@
       <c r="O28" s="42">
         <v>43511</v>
       </c>
-      <c r="Q28" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="R28" s="79"/>
-      <c r="T28" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="U28" s="79"/>
+      <c r="Q28" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="R28" s="80"/>
+      <c r="T28" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="80"/>
     </row>
     <row r="29" spans="5:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="39">
         <v>20</v>
       </c>
       <c r="R29" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T29" s="53">
         <v>24</v>
       </c>
       <c r="U29" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="5:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="79"/>
-      <c r="N30" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="O30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="N30" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="80"/>
       <c r="Q30" s="41">
         <v>43470</v>
       </c>
@@ -12405,13 +12436,13 @@
         <v>7</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N31" s="39">
         <v>16</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
@@ -12433,35 +12464,35 @@
       <c r="U32" s="52"/>
     </row>
     <row r="33" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q33" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="R33" s="79"/>
-      <c r="T33" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="U33" s="79"/>
+      <c r="Q33" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="R33" s="80"/>
+      <c r="T33" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33" s="80"/>
     </row>
     <row r="34" spans="8:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="78" t="s">
+      <c r="H34" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="79"/>
-      <c r="N34" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" s="79"/>
+      <c r="I34" s="80"/>
+      <c r="N34" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="80"/>
       <c r="Q34" s="39">
         <v>21</v>
       </c>
       <c r="R34" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T34" s="53">
         <v>25</v>
       </c>
       <c r="U34" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="8:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12469,13 +12500,13 @@
         <v>8</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N35" s="39">
         <v>15</v>
       </c>
       <c r="O35" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q35" s="41">
         <v>43490</v>
@@ -12511,27 +12542,27 @@
       <c r="U37" s="52"/>
     </row>
     <row r="38" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="O38" s="79"/>
-      <c r="T38" s="78" t="s">
+      <c r="N38" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" s="80"/>
+      <c r="T38" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="79"/>
+      <c r="U38" s="80"/>
     </row>
     <row r="39" spans="8:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N39" s="39">
         <v>17</v>
       </c>
       <c r="O39" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T39" s="53">
         <v>26</v>
       </c>
       <c r="U39" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="8:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12557,27 +12588,27 @@
       <c r="U42" s="52"/>
     </row>
     <row r="43" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N43" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="79"/>
-      <c r="T43" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" s="79"/>
+      <c r="N43" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="O43" s="80"/>
+      <c r="T43" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="80"/>
     </row>
     <row r="44" spans="8:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N44" s="39">
         <v>19</v>
       </c>
       <c r="O44" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T44" s="53">
         <v>27</v>
       </c>
       <c r="U44" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="8:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12604,17 +12635,17 @@
     </row>
     <row r="48" spans="8:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="14:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N49" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O49" s="79"/>
+      <c r="N49" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="O49" s="80"/>
     </row>
     <row r="50" spans="14:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N50" s="39">
         <v>18</v>
       </c>
       <c r="O50" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="14:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12626,27 +12657,27 @@
       </c>
     </row>
     <row r="52" spans="14:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q52" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="R52" s="79"/>
-      <c r="T52" s="80" t="s">
+      <c r="Q52" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="R52" s="80"/>
+      <c r="T52" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="U52" s="81"/>
+      <c r="U52" s="84"/>
     </row>
     <row r="53" spans="14:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q53" s="53">
         <v>28</v>
       </c>
       <c r="R53" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T53" s="39">
         <v>29</v>
       </c>
       <c r="U53" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="14:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12665,17 +12696,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H34:I34"/>
@@ -12689,13 +12714,84 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T28:U28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84698D14-0D75-0144-9B86-4FE773E46F35}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>